--- a/docs/NBA 2K/Historical Seasons/1974-75 Ratings.xlsx
+++ b/docs/NBA 2K/Historical Seasons/1974-75 Ratings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30af24b3fe5d560e/Documentos/André/Games/Documents/Games/NBA 2K/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30af24b3fe5d560e/Documentos/André/Games/Documents/Sports Games/NBA 2K/Historical Seasons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19991" documentId="13_ncr:1_{8B08D970-4979-4C7B-975B-E3207E6A3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4317E01-F13D-4265-89EB-48C806434867}"/>
+  <xr:revisionPtr revIDLastSave="20003" documentId="13_ncr:1_{8B08D970-4979-4C7B-975B-E3207E6A3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C618CE31-554D-4856-9D55-36FB8B6E0A3E}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="1152" windowWidth="22896" windowHeight="9456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="120" windowWidth="22896" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="281">
   <si>
     <t>Player</t>
   </si>
@@ -45,30 +45,9 @@
     <t>Country</t>
   </si>
   <si>
-    <t>League</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
-    <t>NBA Draft Year</t>
-  </si>
-  <si>
-    <t>NBA Draft Pick</t>
-  </si>
-  <si>
-    <t>NCAA Team</t>
-  </si>
-  <si>
-    <t>NCAA Career</t>
-  </si>
-  <si>
-    <t>NCAA Team2</t>
-  </si>
-  <si>
-    <t>NCAA Career2</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -76,6 +55,831 @@
   </si>
   <si>
     <t>Number Players</t>
+  </si>
+  <si>
+    <t>Zaid Abdul-Aziz</t>
+  </si>
+  <si>
+    <t>C-F</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>Kareem Abdul-Jabbar</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>Don Adams</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>Rick Adelman</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CHI,KCO,NOJ</t>
+  </si>
+  <si>
+    <t>Lucius Allen</t>
+  </si>
+  <si>
+    <t>LAL,MIL</t>
+  </si>
+  <si>
+    <t>Dan Anderson</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Tiny Archibald</t>
+  </si>
+  <si>
+    <t>KCO</t>
+  </si>
+  <si>
+    <t>Jim Ard</t>
+  </si>
+  <si>
+    <t>F-C</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>Dennis Awtrey</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>Gus Bailey</t>
+  </si>
+  <si>
+    <t>G-F</t>
+  </si>
+  <si>
+    <t>Mike Bantom</t>
+  </si>
+  <si>
+    <t>Jim Barnett</t>
+  </si>
+  <si>
+    <t>NOJ,NYK</t>
+  </si>
+  <si>
+    <t>Rick Barry</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>Butch Beard</t>
+  </si>
+  <si>
+    <t>Zelmo Beaty</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>Ron Behagen</t>
+  </si>
+  <si>
+    <t>Dennis Bell</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>Walt Bellamy</t>
+  </si>
+  <si>
+    <t>NOJ</t>
+  </si>
+  <si>
+    <t>Leon Benbow</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Henry Bibby</t>
+  </si>
+  <si>
+    <t>Dave Bing</t>
+  </si>
+  <si>
+    <t>John Block</t>
+  </si>
+  <si>
+    <t>CHI,NOJ</t>
+  </si>
+  <si>
+    <t>Tom Boerwinkle</t>
+  </si>
+  <si>
+    <t>Freddie Boyd</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>Ken Boyd</t>
+  </si>
+  <si>
+    <t>Steve Bracey</t>
+  </si>
+  <si>
+    <t>Bill Bradley</t>
+  </si>
+  <si>
+    <t>F-G</t>
+  </si>
+  <si>
+    <t>Jim Brewer</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>Bill Bridges</t>
+  </si>
+  <si>
+    <t>GSW,LAL</t>
+  </si>
+  <si>
+    <t>John Brisker</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>Allan Bristow</t>
+  </si>
+  <si>
+    <t>Gary Brokaw</t>
+  </si>
+  <si>
+    <t>Fred Brown</t>
+  </si>
+  <si>
+    <t>John Brown</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>Tom Burleson</t>
+  </si>
+  <si>
+    <t>Corky Calhoun</t>
+  </si>
+  <si>
+    <t>LAL,PHO</t>
+  </si>
+  <si>
+    <t>Austin Carr</t>
+  </si>
+  <si>
+    <t>Fred Carter</t>
+  </si>
+  <si>
+    <t>Harvey Catchings</t>
+  </si>
+  <si>
+    <t>Don Chaney</t>
+  </si>
+  <si>
+    <t>Ken Charles</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t>Phil Chenier</t>
+  </si>
+  <si>
+    <t>WSB</t>
+  </si>
+  <si>
+    <t>Jim Chones</t>
+  </si>
+  <si>
+    <t>Archie Clark</t>
+  </si>
+  <si>
+    <t>Jim Cleamons</t>
+  </si>
+  <si>
+    <t>Barry Clemens</t>
+  </si>
+  <si>
+    <t>Ben Clyde</t>
+  </si>
+  <si>
+    <t>E.C. Coleman</t>
+  </si>
+  <si>
+    <t>Doug Collins</t>
+  </si>
+  <si>
+    <t>Mel Counts</t>
+  </si>
+  <si>
+    <t>Dave Cowens</t>
+  </si>
+  <si>
+    <t>Billy Cunningham</t>
+  </si>
+  <si>
+    <t>Dick Cunningham</t>
+  </si>
+  <si>
+    <t>Mike D'Antoni</t>
+  </si>
+  <si>
+    <t>Bob Dandridge</t>
+  </si>
+  <si>
+    <t>Jesse Dark</t>
+  </si>
+  <si>
+    <t>Dwight Davis</t>
+  </si>
+  <si>
+    <t>Jim Davis</t>
+  </si>
+  <si>
+    <t>Mel Davis</t>
+  </si>
+  <si>
+    <t>Mickey Davis</t>
+  </si>
+  <si>
+    <t>Rod Derline</t>
+  </si>
+  <si>
+    <t>Derrek Dickey</t>
+  </si>
+  <si>
+    <t>Ernie DiGregorio</t>
+  </si>
+  <si>
+    <t>Steve Downing</t>
+  </si>
+  <si>
+    <t>John Drew</t>
+  </si>
+  <si>
+    <t>Terry Driscoll</t>
+  </si>
+  <si>
+    <t>Charles Dudley</t>
+  </si>
+  <si>
+    <t>Ken Durrett</t>
+  </si>
+  <si>
+    <t>KCO,PHI</t>
+  </si>
+  <si>
+    <t>Dennis DuVal</t>
+  </si>
+  <si>
+    <t>Al Eberhard</t>
+  </si>
+  <si>
+    <t>Leroy Ellis</t>
+  </si>
+  <si>
+    <t>Keith Erickson</t>
+  </si>
+  <si>
+    <t>Hank Finkel</t>
+  </si>
+  <si>
+    <t>Chris Ford</t>
+  </si>
+  <si>
+    <t>Fred Foster</t>
+  </si>
+  <si>
+    <t>Jim Fox</t>
+  </si>
+  <si>
+    <t>Walt Frazier</t>
+  </si>
+  <si>
+    <t>Bernie Fryer</t>
+  </si>
+  <si>
+    <t>Rowland Garrett</t>
+  </si>
+  <si>
+    <t>John Gianelli</t>
+  </si>
+  <si>
+    <t>Dick Gibbs</t>
+  </si>
+  <si>
+    <t>Herm Gilliam</t>
+  </si>
+  <si>
+    <t>Gail Goodrich</t>
+  </si>
+  <si>
+    <t>Leonard Gray</t>
+  </si>
+  <si>
+    <t>Lamar Green</t>
+  </si>
+  <si>
+    <t>Matt Guokas</t>
+  </si>
+  <si>
+    <t>Happy Hairston</t>
+  </si>
+  <si>
+    <t>Phil Hankinson</t>
+  </si>
+  <si>
+    <t>Bernie Harris</t>
+  </si>
+  <si>
+    <t>Clem Haskins</t>
+  </si>
+  <si>
+    <t>John Havlicek</t>
+  </si>
+  <si>
+    <t>Steve Hawes</t>
+  </si>
+  <si>
+    <t>Connie Hawkins</t>
+  </si>
+  <si>
+    <t>Nate Hawthorne</t>
+  </si>
+  <si>
+    <t>Elvin Hayes</t>
+  </si>
+  <si>
+    <t>Spencer Haywood</t>
+  </si>
+  <si>
+    <t>Gar Heard</t>
+  </si>
+  <si>
+    <t>Tom Henderson</t>
+  </si>
+  <si>
+    <t>Bill Hewitt</t>
+  </si>
+  <si>
+    <t>Lou Hudson</t>
+  </si>
+  <si>
+    <t>John Hummer</t>
+  </si>
+  <si>
+    <t>Greg Jackson</t>
+  </si>
+  <si>
+    <t>NYK,PHO</t>
+  </si>
+  <si>
+    <t>Phil Jackson</t>
+  </si>
+  <si>
+    <t>Wardell Jackson</t>
+  </si>
+  <si>
+    <t>Aaron James</t>
+  </si>
+  <si>
+    <t>Charles Johnson</t>
+  </si>
+  <si>
+    <t>George Johnson</t>
+  </si>
+  <si>
+    <t>John Johnson</t>
+  </si>
+  <si>
+    <t>Mickey Johnson</t>
+  </si>
+  <si>
+    <t>Ollie Johnson</t>
+  </si>
+  <si>
+    <t>KCO,NOJ</t>
+  </si>
+  <si>
+    <t>Dwight Jones</t>
+  </si>
+  <si>
+    <t>Jimmy Jones</t>
+  </si>
+  <si>
+    <t>Bob Kauffman</t>
+  </si>
+  <si>
+    <t>Frank Kendrick</t>
+  </si>
+  <si>
+    <t>Toby Kimball</t>
+  </si>
+  <si>
+    <t>Don Kojis</t>
+  </si>
+  <si>
+    <t>Len Kosmalski</t>
+  </si>
+  <si>
+    <t>Tom Kozelko</t>
+  </si>
+  <si>
+    <t>Steve Kuberski</t>
+  </si>
+  <si>
+    <t>Kevin Kunnert</t>
+  </si>
+  <si>
+    <t>Sam Lacey</t>
+  </si>
+  <si>
+    <t>Bob Lanier</t>
+  </si>
+  <si>
+    <t>Stu Lantz</t>
+  </si>
+  <si>
+    <t>LAL,NOJ</t>
+  </si>
+  <si>
+    <t>Clyde Lee</t>
+  </si>
+  <si>
+    <t>ATL,PHI</t>
+  </si>
+  <si>
+    <t>Russ Lee</t>
+  </si>
+  <si>
+    <t>Bill Ligon</t>
+  </si>
+  <si>
+    <t>Bob Love</t>
+  </si>
+  <si>
+    <t>Stan Love</t>
+  </si>
+  <si>
+    <t>Phil Lumpkin</t>
+  </si>
+  <si>
+    <t>Pete Maravich</t>
+  </si>
+  <si>
+    <t>Jack Marin</t>
+  </si>
+  <si>
+    <t>LaRue Martin</t>
+  </si>
+  <si>
+    <t>Don May</t>
+  </si>
+  <si>
+    <t>Bob McAdoo</t>
+  </si>
+  <si>
+    <t>Glenn McDonald</t>
+  </si>
+  <si>
+    <t>Jon McGlocklin</t>
+  </si>
+  <si>
+    <t>Kenny McIntosh</t>
+  </si>
+  <si>
+    <t>Jim McMillian</t>
+  </si>
+  <si>
+    <t>Larry McNeill</t>
+  </si>
+  <si>
+    <t>Cliff Meely</t>
+  </si>
+  <si>
+    <t>Gary Melchionni</t>
+  </si>
+  <si>
+    <t>Dean Meminger</t>
+  </si>
+  <si>
+    <t>John Mengelt</t>
+  </si>
+  <si>
+    <t>Steve Mix</t>
+  </si>
+  <si>
+    <t>Eric Money</t>
+  </si>
+  <si>
+    <t>Earl Monroe</t>
+  </si>
+  <si>
+    <t>Otto Moore</t>
+  </si>
+  <si>
+    <t>DET,NOJ</t>
+  </si>
+  <si>
+    <t>Jeff Mullins</t>
+  </si>
+  <si>
+    <t>Calvin Murphy</t>
+  </si>
+  <si>
+    <t>Lloyd Neal</t>
+  </si>
+  <si>
+    <t>Don Nelson</t>
+  </si>
+  <si>
+    <t>Louie Nelson</t>
+  </si>
+  <si>
+    <t>Mike Newlin</t>
+  </si>
+  <si>
+    <t>Connie Norman</t>
+  </si>
+  <si>
+    <t>Willie Norwood</t>
+  </si>
+  <si>
+    <t>Jim Owens</t>
+  </si>
+  <si>
+    <t>Steve Patterson</t>
+  </si>
+  <si>
+    <t>Curtis Perry</t>
+  </si>
+  <si>
+    <t>Geoff Petrie</t>
+  </si>
+  <si>
+    <t>Howard Porter</t>
+  </si>
+  <si>
+    <t>DET,NYK</t>
+  </si>
+  <si>
+    <t>Kevin Porter</t>
+  </si>
+  <si>
+    <t>Jim Price</t>
+  </si>
+  <si>
+    <t>Ed Ratleff</t>
+  </si>
+  <si>
+    <t>Clifford Ray</t>
+  </si>
+  <si>
+    <t>Kevin Restani</t>
+  </si>
+  <si>
+    <t>Tom Riker</t>
+  </si>
+  <si>
+    <t>Pat Riley</t>
+  </si>
+  <si>
+    <t>Ron Riley</t>
+  </si>
+  <si>
+    <t>Mike Riordan</t>
+  </si>
+  <si>
+    <t>Rick Roberson</t>
+  </si>
+  <si>
+    <t>Truck Robinson</t>
+  </si>
+  <si>
+    <t>Curtis Rowe</t>
+  </si>
+  <si>
+    <t>Paul Ruffner</t>
+  </si>
+  <si>
+    <t>Bob Rule</t>
+  </si>
+  <si>
+    <t>Campy Russell</t>
+  </si>
+  <si>
+    <t>Cazzie Russell</t>
+  </si>
+  <si>
+    <t>Fred Saunders</t>
+  </si>
+  <si>
+    <t>Dale Schlueter</t>
+  </si>
+  <si>
+    <t>Charlie Scott</t>
+  </si>
+  <si>
+    <t>Paul Silas</t>
+  </si>
+  <si>
+    <t>Tal Skinner</t>
+  </si>
+  <si>
+    <t>Jerry Sloan</t>
+  </si>
+  <si>
+    <t>Bingo Smith</t>
+  </si>
+  <si>
+    <t>Don Smith</t>
+  </si>
+  <si>
+    <t>Elmore Smith</t>
+  </si>
+  <si>
+    <t>Greg Smith</t>
+  </si>
+  <si>
+    <t>Phil Smith</t>
+  </si>
+  <si>
+    <t>Randy Smith</t>
+  </si>
+  <si>
+    <t>Dick Snyder</t>
+  </si>
+  <si>
+    <t>Mike Sojourner</t>
+  </si>
+  <si>
+    <t>Kevin Stacom</t>
+  </si>
+  <si>
+    <t>Bud Stallworth</t>
+  </si>
+  <si>
+    <t>Dave Stallworth</t>
+  </si>
+  <si>
+    <t>Larry Steele</t>
+  </si>
+  <si>
+    <t>George Thompson</t>
+  </si>
+  <si>
+    <t>Nate Thurmond</t>
+  </si>
+  <si>
+    <t>Dean Tolson</t>
+  </si>
+  <si>
+    <t>Rudy Tomjanovich</t>
+  </si>
+  <si>
+    <t>George Trapp</t>
+  </si>
+  <si>
+    <t>John Tschogl</t>
+  </si>
+  <si>
+    <t>Wes Unseld</t>
+  </si>
+  <si>
+    <t>Dick Van Arsdale</t>
+  </si>
+  <si>
+    <t>Tom Van Arsdale</t>
+  </si>
+  <si>
+    <t>Norm Van Lier</t>
+  </si>
+  <si>
+    <t>Neal Walk</t>
+  </si>
+  <si>
+    <t>Chet Walker</t>
+  </si>
+  <si>
+    <t>Foots Walker</t>
+  </si>
+  <si>
+    <t>Jimmy Walker</t>
+  </si>
+  <si>
+    <t>Bill Walton</t>
+  </si>
+  <si>
+    <t>Perry Warbington</t>
+  </si>
+  <si>
+    <t>Cornell Warner</t>
+  </si>
+  <si>
+    <t>Jim Washington</t>
+  </si>
+  <si>
+    <t>ATL,BUF</t>
+  </si>
+  <si>
+    <t>Kermit Washington</t>
+  </si>
+  <si>
+    <t>Stan Washington</t>
+  </si>
+  <si>
+    <t>Slick Watts</t>
+  </si>
+  <si>
+    <t>Nick Weatherspoon</t>
+  </si>
+  <si>
+    <t>Scott Wedman</t>
+  </si>
+  <si>
+    <t>Bob Weiss</t>
+  </si>
+  <si>
+    <t>Owen Wells</t>
+  </si>
+  <si>
+    <t>Walt Wesley</t>
+  </si>
+  <si>
+    <t>MIL,PHI</t>
+  </si>
+  <si>
+    <t>Paul Westphal</t>
+  </si>
+  <si>
+    <t>John Wetzel</t>
+  </si>
+  <si>
+    <t>Jo Jo White</t>
+  </si>
+  <si>
+    <t>Sidney Wicks</t>
+  </si>
+  <si>
+    <t>Lenny Wilkens</t>
+  </si>
+  <si>
+    <t>Jamaal Wilkes</t>
+  </si>
+  <si>
+    <t>Earl Williams</t>
+  </si>
+  <si>
+    <t>Nate Williams</t>
+  </si>
+  <si>
+    <t>Ron Williams</t>
+  </si>
+  <si>
+    <t>Bobby Wilson</t>
+  </si>
+  <si>
+    <t>Lee Winfield</t>
+  </si>
+  <si>
+    <t>Harthorne Wingo</t>
+  </si>
+  <si>
+    <t>Brian Winters</t>
+  </si>
+  <si>
+    <t>Luke Witte</t>
+  </si>
+  <si>
+    <t>Dave Wohl</t>
   </si>
 </sst>
 </file>
@@ -140,7 +944,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -229,72 +1048,6 @@
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
       </font>
     </dxf>
     <dxf>
@@ -321,36 +1074,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}" name="Tabela1" displayName="Tabela1" ref="A1:K2" insertRow="1" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="A1:K2" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K2">
-    <sortCondition descending="1" ref="C1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}" name="Tabela1" displayName="Tabela1" ref="A1:E236" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:E236" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E236">
+    <sortCondition ref="A1:A236"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{45DD2C62-7C3E-42FD-99E1-1C11CC08F3BC}" name="Player" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{5ED8160B-1FE1-4B36-9C43-B84B769D915A}" name="Country" dataDxfId="14"/>
-    <tableColumn id="94" xr3:uid="{811BEBA5-05F0-43E2-ACD7-30037F742D95}" name="Rating" dataDxfId="13"/>
-    <tableColumn id="95" xr3:uid="{F0C178E4-4090-42AF-B2B8-45EB32788498}" name="Position" dataDxfId="12"/>
-    <tableColumn id="96" xr3:uid="{D7710C5A-8FC6-4CD2-981E-D7714AC8B0B1}" name="Team" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{42F4E4AE-9E2F-42E6-A624-B0DDED1BA144}" name="NBA Draft Pick" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C5ADDAAD-AA8C-478E-801E-F5C2E76F198B}" name="NBA Draft Year" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{495F089D-8EC3-4517-92B9-01EEBF55AC2A}" name="NCAA Team" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{F640226B-E5C6-4B9C-B44D-F660E0941E5A}" name="NCAA Career" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{093F9130-C566-4A0F-9529-0C1A81A8141E}" name="NCAA Team2" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{053888DD-68A0-4B8B-BFCD-C8C9C7316E0F}" name="NCAA Career2" dataDxfId="5"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{45DD2C62-7C3E-42FD-99E1-1C11CC08F3BC}" name="Player" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5ED8160B-1FE1-4B36-9C43-B84B769D915A}" name="Country" dataDxfId="8"/>
+    <tableColumn id="94" xr3:uid="{811BEBA5-05F0-43E2-ACD7-30037F742D95}" name="Rating" dataDxfId="7"/>
+    <tableColumn id="95" xr3:uid="{F0C178E4-4090-42AF-B2B8-45EB32788498}" name="Position" dataDxfId="1"/>
+    <tableColumn id="96" xr3:uid="{D7710C5A-8FC6-4CD2-981E-D7714AC8B0B1}" name="Team" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}" name="Tabela2" displayName="Tabela2" ref="A1:D2" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:D2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3C0468BE-8281-499F-8CD2-E83026C0E02C}" name="Team" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CAD836CE-C9A0-4EB0-BB8B-1EF53179D773}" name="Country" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{EDB7CB8F-EFE3-4832-BE68-80DE63CAED30}" name="League" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D459AB18-454B-4998-9648-6D7558734687}" name="Number Players" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}" name="Tabela2" displayName="Tabela2" ref="A1:C2" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:C2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3C0468BE-8281-499F-8CD2-E83026C0E02C}" name="Team" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CAD836CE-C9A0-4EB0-BB8B-1EF53179D773}" name="Country" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D459AB18-454B-4998-9648-6D7558734687}" name="Number Players" dataDxfId="3">
       <calculatedColumnFormula>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -621,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,15 +1380,9 @@
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,45 +1390,3069 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -702,7 +4466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91B5C15-9235-4990-AD10-9915F8885DD9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -712,29 +4476,24 @@
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <f>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</f>
         <v>0</v>
       </c>
